--- a/biology/Botanique/Jacobaea_leucophylla/Jacobaea_leucophylla.xlsx
+++ b/biology/Botanique/Jacobaea_leucophylla/Jacobaea_leucophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Séneçon à feuilles blanchâtres, Séneçon argenté
 Le Séneçon à feuilles blanchâtres ou Séneçon argenté (Jacobaea leucophylla) est une espèce de plante à fleurs de la famille des Asteracées.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Senecio canus Pourr. ex Willk. &amp; Lange
 Senecio incanus Lapeyr.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace de 10 à 20 cm de hauteur, avec une inflorescence jaune et des feuilles tomenteuses blanchâtres.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Éboulis siliceux.
 </t>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Massif central au mont Mézenc à 1 700 m d'altitude. Pyrénées orientales (de 2 000 à 2 700 m d'altitude).
 </t>
@@ -638,7 +658,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacobaea leucophylla figure sur les listes des espèces végétales protégées en régions Midi-Pyrénées, Rhône-Alpes et Auvergne.
 </t>
